--- a/sigbm_download_2022-12-06.xlsx
+++ b/sigbm_download_2022-12-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222305.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223205.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/12/2022 - 10:23:02</t>
+    <t>Informação extraída do SIGBM: 05/12/2022 - 11:32:01</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-06.xlsx
+++ b/sigbm_download_2022-12-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223205.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220006.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/12/2022 - 11:32:01</t>
+    <t>Informação extraída do SIGBM: 06/12/2022 - 12:00:10</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-06.xlsx
+++ b/sigbm_download_2022-12-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220006.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221906.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 06/12/2022 - 12:00:10</t>
+    <t>Informação extraída do SIGBM: 06/12/2022 - 12:19:13</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-06.xlsx
+++ b/sigbm_download_2022-12-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221906.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223306.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 06/12/2022 - 12:19:13</t>
+    <t>Informação extraída do SIGBM: 06/12/2022 - 12:33:48</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-06.xlsx
+++ b/sigbm_download_2022-12-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223306.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224306.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 06/12/2022 - 12:33:48</t>
+    <t>Informação extraída do SIGBM: 06/12/2022 - 12:43:34</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-06.xlsx
+++ b/sigbm_download_2022-12-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224306.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225206.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 06/12/2022 - 12:43:34</t>
+    <t>Informação extraída do SIGBM: 06/12/2022 - 12:52:34</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-06.xlsx
+++ b/sigbm_download_2022-12-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225206.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220106.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 06/12/2022 - 12:52:34</t>
+    <t>Informação extraída do SIGBM: 06/12/2022 - 01:01:12</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-06.xlsx
+++ b/sigbm_download_2022-12-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220106.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222506.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 06/12/2022 - 01:01:12</t>
+    <t>Informação extraída do SIGBM: 06/12/2022 - 01:25:14</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-06.xlsx
+++ b/sigbm_download_2022-12-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222506.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223906.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 06/12/2022 - 01:25:14</t>
+    <t>Informação extraída do SIGBM: 06/12/2022 - 01:39:59</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-06.xlsx
+++ b/sigbm_download_2022-12-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223906.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224906.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 06/12/2022 - 01:39:59</t>
+    <t>Informação extraída do SIGBM: 06/12/2022 - 01:49:16</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-06.xlsx
+++ b/sigbm_download_2022-12-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224906.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225706.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 06/12/2022 - 01:49:16</t>
+    <t>Informação extraída do SIGBM: 06/12/2022 - 01:57:57</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-06.xlsx
+++ b/sigbm_download_2022-12-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225706.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221406.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 06/12/2022 - 01:57:57</t>
+    <t>Informação extraída do SIGBM: 06/12/2022 - 02:14:32</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-06.xlsx
+++ b/sigbm_download_2022-12-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221406.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222806.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 06/12/2022 - 02:14:32</t>
+    <t>Informação extraída do SIGBM: 06/12/2022 - 02:28:16</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-06.xlsx
+++ b/sigbm_download_2022-12-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222806.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223706.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 06/12/2022 - 02:28:16</t>
+    <t>Informação extraída do SIGBM: 06/12/2022 - 02:37:39</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-06.xlsx
+++ b/sigbm_download_2022-12-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223706.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224606.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 06/12/2022 - 02:37:39</t>
+    <t>Informação extraída do SIGBM: 06/12/2022 - 02:46:44</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-06.xlsx
+++ b/sigbm_download_2022-12-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224606.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225506.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 06/12/2022 - 02:46:44</t>
+    <t>Informação extraída do SIGBM: 06/12/2022 - 02:55:53</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-06.xlsx
+++ b/sigbm_download_2022-12-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225506.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221106.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 06/12/2022 - 02:55:53</t>
+    <t>Informação extraída do SIGBM: 06/12/2022 - 03:11:33</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-06.xlsx
+++ b/sigbm_download_2022-12-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221106.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223406.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 06/12/2022 - 03:11:33</t>
+    <t>Informação extraída do SIGBM: 06/12/2022 - 03:34:24</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-06.xlsx
+++ b/sigbm_download_2022-12-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223406.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224706.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 06/12/2022 - 03:34:24</t>
+    <t>Informação extraída do SIGBM: 06/12/2022 - 03:47:25</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-06.xlsx
+++ b/sigbm_download_2022-12-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224706.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225606.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 06/12/2022 - 03:47:25</t>
+    <t>Informação extraída do SIGBM: 06/12/2022 - 03:56:11</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-06.xlsx
+++ b/sigbm_download_2022-12-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225606.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220906.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 06/12/2022 - 03:56:11</t>
+    <t>Informação extraída do SIGBM: 06/12/2022 - 04:09:29</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-06.xlsx
+++ b/sigbm_download_2022-12-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220906.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222406.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 06/12/2022 - 04:09:29</t>
+    <t>Informação extraída do SIGBM: 06/12/2022 - 04:24:48</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-06.xlsx
+++ b/sigbm_download_2022-12-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222406.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223306.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 06/12/2022 - 04:24:48</t>
+    <t>Informação extraída do SIGBM: 06/12/2022 - 04:33:28</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-06.xlsx
+++ b/sigbm_download_2022-12-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223306.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224206.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 06/12/2022 - 04:33:28</t>
+    <t>Informação extraída do SIGBM: 06/12/2022 - 04:42:25</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-06.xlsx
+++ b/sigbm_download_2022-12-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224206.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225106.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 06/12/2022 - 04:42:25</t>
+    <t>Informação extraída do SIGBM: 06/12/2022 - 04:51:17</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-06.xlsx
+++ b/sigbm_download_2022-12-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225106.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220006.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 06/12/2022 - 04:51:17</t>
+    <t>Informação extraída do SIGBM: 06/12/2022 - 05:00:13</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-06.xlsx
+++ b/sigbm_download_2022-12-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220006.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222306.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 06/12/2022 - 05:00:13</t>
+    <t>Informação extraída do SIGBM: 06/12/2022 - 05:23:23</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-06.xlsx
+++ b/sigbm_download_2022-12-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222306.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223906.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 06/12/2022 - 05:23:23</t>
+    <t>Informação extraída do SIGBM: 06/12/2022 - 05:39:17</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-06.xlsx
+++ b/sigbm_download_2022-12-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223906.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224806.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 06/12/2022 - 05:39:17</t>
+    <t>Informação extraída do SIGBM: 06/12/2022 - 05:48:38</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-06.xlsx
+++ b/sigbm_download_2022-12-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224806.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225706.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 06/12/2022 - 05:48:38</t>
+    <t>Informação extraída do SIGBM: 06/12/2022 - 05:57:22</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-06.xlsx
+++ b/sigbm_download_2022-12-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225706.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221306.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 06/12/2022 - 05:57:22</t>
+    <t>Informação extraída do SIGBM: 06/12/2022 - 06:13:39</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-06.xlsx
+++ b/sigbm_download_2022-12-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221306.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222906.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 06/12/2022 - 06:13:39</t>
+    <t>Informação extraída do SIGBM: 06/12/2022 - 06:29:15</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-06.xlsx
+++ b/sigbm_download_2022-12-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222906.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223806.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 06/12/2022 - 06:29:15</t>
+    <t>Informação extraída do SIGBM: 06/12/2022 - 06:38:43</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-06.xlsx
+++ b/sigbm_download_2022-12-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223806.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224706.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 06/12/2022 - 06:38:43</t>
+    <t>Informação extraída do SIGBM: 06/12/2022 - 06:47:06</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-06.xlsx
+++ b/sigbm_download_2022-12-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224706.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225506.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 06/12/2022 - 06:47:06</t>
+    <t>Informação extraída do SIGBM: 06/12/2022 - 06:55:40</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-06.xlsx
+++ b/sigbm_download_2022-12-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225506.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221006.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 06/12/2022 - 06:55:40</t>
+    <t>Informação extraída do SIGBM: 06/12/2022 - 07:10:48</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-06.xlsx
+++ b/sigbm_download_2022-12-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221006.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223006.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 06/12/2022 - 07:10:48</t>
+    <t>Informação extraída do SIGBM: 06/12/2022 - 07:30:30</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-06.xlsx
+++ b/sigbm_download_2022-12-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223006.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224106.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 06/12/2022 - 07:30:30</t>
+    <t>Informação extraída do SIGBM: 06/12/2022 - 07:41:32</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-06.xlsx
+++ b/sigbm_download_2022-12-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224106.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225006.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 06/12/2022 - 07:41:32</t>
+    <t>Informação extraída do SIGBM: 06/12/2022 - 07:50:52</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-06.xlsx
+++ b/sigbm_download_2022-12-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225006.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225906.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 06/12/2022 - 07:50:52</t>
+    <t>Informação extraída do SIGBM: 06/12/2022 - 07:59:10</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-06.xlsx
+++ b/sigbm_download_2022-12-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225906.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221406.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 06/12/2022 - 07:59:10</t>
+    <t>Informação extraída do SIGBM: 06/12/2022 - 08:14:36</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-06.xlsx
+++ b/sigbm_download_2022-12-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221406.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222606.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 06/12/2022 - 08:14:36</t>
+    <t>Informação extraída do SIGBM: 06/12/2022 - 08:26:36</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-06.xlsx
+++ b/sigbm_download_2022-12-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222606.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223506.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 06/12/2022 - 08:26:36</t>
+    <t>Informação extraída do SIGBM: 06/12/2022 - 08:35:51</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-06.xlsx
+++ b/sigbm_download_2022-12-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223506.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224406.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 06/12/2022 - 08:35:51</t>
+    <t>Informação extraída do SIGBM: 06/12/2022 - 08:44:39</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-06.xlsx
+++ b/sigbm_download_2022-12-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224406.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225406.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 06/12/2022 - 08:44:39</t>
+    <t>Informação extraída do SIGBM: 06/12/2022 - 08:54:19</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-06.xlsx
+++ b/sigbm_download_2022-12-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225406.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220206.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 06/12/2022 - 08:54:19</t>
+    <t>Informação extraída do SIGBM: 06/12/2022 - 09:02:42</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-06.xlsx
+++ b/sigbm_download_2022-12-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220206.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224606.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 06/12/2022 - 09:02:42</t>
+    <t>Informação extraída do SIGBM: 06/12/2022 - 09:46:09</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-06.xlsx
+++ b/sigbm_download_2022-12-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224606.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221306.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 06/12/2022 - 09:46:09</t>
+    <t>Informação extraída do SIGBM: 06/12/2022 - 10:13:56</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-06.xlsx
+++ b/sigbm_download_2022-12-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221306.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223506.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 06/12/2022 - 10:13:56</t>
+    <t>Informação extraída do SIGBM: 06/12/2022 - 10:35:36</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-06.xlsx
+++ b/sigbm_download_2022-12-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223506.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224506.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 06/12/2022 - 10:35:36</t>
+    <t>Informação extraída do SIGBM: 06/12/2022 - 10:45:36</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-06.xlsx
+++ b/sigbm_download_2022-12-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224506.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225406.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 06/12/2022 - 10:45:36</t>
+    <t>Informação extraída do SIGBM: 06/12/2022 - 10:54:28</t>
   </si>
   <si>
     <t>ID Barragem</t>
@@ -67754,7 +67754,7 @@
         <v>753</v>
       </c>
       <c r="K893" s="0">
-        <v>20</v>
+        <v>14.4</v>
       </c>
       <c r="L893" s="0" t="s">
         <v>174</v>
@@ -67763,16 +67763,16 @@
         <v>147</v>
       </c>
       <c r="N893" s="0" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="O893" s="0" t="s">
-        <v>107</v>
+        <v>31</v>
       </c>
       <c r="P893" s="0" t="s">
-        <v>349</v>
+        <v>31</v>
       </c>
       <c r="Q893" s="0" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="R893" s="0" t="s">
         <v>33</v>

--- a/sigbm_download_2022-12-06.xlsx
+++ b/sigbm_download_2022-12-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225406.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220306.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 06/12/2022 - 10:54:28</t>
+    <t>Informação extraída do SIGBM: 06/12/2022 - 11:03:15</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-06.xlsx
+++ b/sigbm_download_2022-12-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220306.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222206.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 06/12/2022 - 11:03:15</t>
+    <t>Informação extraída do SIGBM: 06/12/2022 - 11:22:23</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-06.xlsx
+++ b/sigbm_download_2022-12-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222206.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223206.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 06/12/2022 - 11:22:23</t>
+    <t>Informação extraída do SIGBM: 06/12/2022 - 11:32:51</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-06.xlsx
+++ b/sigbm_download_2022-12-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223206.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224206.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 06/12/2022 - 11:32:51</t>
+    <t>Informação extraída do SIGBM: 06/12/2022 - 11:42:17</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-06.xlsx
+++ b/sigbm_download_2022-12-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224206.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225106.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 06/12/2022 - 11:42:17</t>
+    <t>Informação extraída do SIGBM: 06/12/2022 - 11:51:15</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-06.xlsx
+++ b/sigbm_download_2022-12-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225106.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220006.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 06/12/2022 - 11:51:15</t>
+    <t>Informação extraída do SIGBM: 06/12/2022 - 12:00:01</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-06.xlsx
+++ b/sigbm_download_2022-12-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220006.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221806.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 06/12/2022 - 12:00:01</t>
+    <t>Informação extraída do SIGBM: 06/12/2022 - 12:18:58</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-06.xlsx
+++ b/sigbm_download_2022-12-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221806.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223506.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 06/12/2022 - 12:18:58</t>
+    <t>Informação extraída do SIGBM: 06/12/2022 - 12:35:46</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-06.xlsx
+++ b/sigbm_download_2022-12-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223506.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224406.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 06/12/2022 - 12:35:46</t>
+    <t>Informação extraída do SIGBM: 06/12/2022 - 12:44:09</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-06.xlsx
+++ b/sigbm_download_2022-12-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224406.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225306.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 06/12/2022 - 12:44:09</t>
+    <t>Informação extraída do SIGBM: 06/12/2022 - 12:53:24</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-06.xlsx
+++ b/sigbm_download_2022-12-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225306.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220206.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 06/12/2022 - 12:53:24</t>
+    <t>Informação extraída do SIGBM: 06/12/2022 - 01:02:21</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-06.xlsx
+++ b/sigbm_download_2022-12-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220206.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223206.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 06/12/2022 - 01:02:21</t>
+    <t>Informação extraída do SIGBM: 06/12/2022 - 01:32:12</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-06.xlsx
+++ b/sigbm_download_2022-12-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223206.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225206.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 06/12/2022 - 01:32:12</t>
+    <t>Informação extraída do SIGBM: 06/12/2022 - 01:52:28</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-06.xlsx
+++ b/sigbm_download_2022-12-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225206.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220106.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 06/12/2022 - 01:52:28</t>
+    <t>Informação extraída do SIGBM: 06/12/2022 - 02:01:03</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-06.xlsx
+++ b/sigbm_download_2022-12-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220106.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221906.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 06/12/2022 - 02:01:03</t>
+    <t>Informação extraída do SIGBM: 06/12/2022 - 02:19:06</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-06.xlsx
+++ b/sigbm_download_2022-12-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221906.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223206.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 06/12/2022 - 02:19:06</t>
+    <t>Informação extraída do SIGBM: 06/12/2022 - 02:32:19</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-06.xlsx
+++ b/sigbm_download_2022-12-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223206.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224006.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 06/12/2022 - 02:32:19</t>
+    <t>Informação extraída do SIGBM: 06/12/2022 - 02:40:57</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-06.xlsx
+++ b/sigbm_download_2022-12-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224006.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225006.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 06/12/2022 - 02:40:57</t>
+    <t>Informação extraída do SIGBM: 06/12/2022 - 02:50:02</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-06.xlsx
+++ b/sigbm_download_2022-12-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225006.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225806.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 06/12/2022 - 02:50:02</t>
+    <t>Informação extraída do SIGBM: 06/12/2022 - 02:58:40</t>
   </si>
   <si>
     <t>ID Barragem</t>
@@ -12740,7 +12740,7 @@
     <t>Pegmatito</t>
   </si>
   <si>
-    <t>585.575,46</t>
+    <t>452.938,84</t>
   </si>
   <si>
     <t>Volta Grande 3</t>
@@ -69927,10 +69927,10 @@
         <v>107</v>
       </c>
       <c r="O928" s="0" t="s">
-        <v>45</v>
+        <v>107</v>
       </c>
       <c r="P928" s="0" t="s">
-        <v>192</v>
+        <v>232</v>
       </c>
       <c r="Q928" s="0" t="s">
         <v>48</v>

--- a/sigbm_download_2022-12-06.xlsx
+++ b/sigbm_download_2022-12-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225806.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221906.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 06/12/2022 - 02:58:40</t>
+    <t>Informação extraída do SIGBM: 06/12/2022 - 03:19:05</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-06.xlsx
+++ b/sigbm_download_2022-12-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221906.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223606.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 06/12/2022 - 03:19:05</t>
+    <t>Informação extraída do SIGBM: 06/12/2022 - 03:36:28</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-06.xlsx
+++ b/sigbm_download_2022-12-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223606.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224706.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 06/12/2022 - 03:36:28</t>
+    <t>Informação extraída do SIGBM: 06/12/2022 - 03:47:24</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-06.xlsx
+++ b/sigbm_download_2022-12-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224706.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225606.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 06/12/2022 - 03:47:24</t>
+    <t>Informação extraída do SIGBM: 06/12/2022 - 03:56:26</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-06.xlsx
+++ b/sigbm_download_2022-12-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225606.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220906.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 06/12/2022 - 03:56:26</t>
+    <t>Informação extraída do SIGBM: 06/12/2022 - 04:09:49</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-06.xlsx
+++ b/sigbm_download_2022-12-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220906.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222206.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 06/12/2022 - 04:09:49</t>
+    <t>Informação extraída do SIGBM: 06/12/2022 - 04:22:31</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-06.xlsx
+++ b/sigbm_download_2022-12-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222206.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223006.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 06/12/2022 - 04:22:31</t>
+    <t>Informação extraída do SIGBM: 06/12/2022 - 04:30:53</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-06.xlsx
+++ b/sigbm_download_2022-12-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223006.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224006.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 06/12/2022 - 04:30:53</t>
+    <t>Informação extraída do SIGBM: 06/12/2022 - 04:40:30</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-06.xlsx
+++ b/sigbm_download_2022-12-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224006.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224806.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 06/12/2022 - 04:40:30</t>
+    <t>Informação extraída do SIGBM: 06/12/2022 - 04:48:44</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-06.xlsx
+++ b/sigbm_download_2022-12-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224806.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225706.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 06/12/2022 - 04:48:44</t>
+    <t>Informação extraída do SIGBM: 06/12/2022 - 04:57:48</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-06.xlsx
+++ b/sigbm_download_2022-12-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225706.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221406.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 06/12/2022 - 04:57:48</t>
+    <t>Informação extraída do SIGBM: 06/12/2022 - 05:14:04</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-06.xlsx
+++ b/sigbm_download_2022-12-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221406.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222906.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 06/12/2022 - 05:14:04</t>
+    <t>Informação extraída do SIGBM: 06/12/2022 - 05:29:26</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-06.xlsx
+++ b/sigbm_download_2022-12-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222906.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223906.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 06/12/2022 - 05:29:26</t>
+    <t>Informação extraída do SIGBM: 06/12/2022 - 05:39:01</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-06.xlsx
+++ b/sigbm_download_2022-12-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223906.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224706.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 06/12/2022 - 05:39:01</t>
+    <t>Informação extraída do SIGBM: 06/12/2022 - 05:47:43</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-06.xlsx
+++ b/sigbm_download_2022-12-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224706.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225606.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 06/12/2022 - 05:47:43</t>
+    <t>Informação extraída do SIGBM: 06/12/2022 - 05:56:37</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-06.xlsx
+++ b/sigbm_download_2022-12-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225606.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221006.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 06/12/2022 - 05:56:37</t>
+    <t>Informação extraída do SIGBM: 06/12/2022 - 06:10:38</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-06.xlsx
+++ b/sigbm_download_2022-12-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221006.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222506.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 06/12/2022 - 06:10:38</t>
+    <t>Informação extraída do SIGBM: 06/12/2022 - 06:25:32</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-06.xlsx
+++ b/sigbm_download_2022-12-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222506.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223406.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 06/12/2022 - 06:25:32</t>
+    <t>Informação extraída do SIGBM: 06/12/2022 - 06:34:49</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-06.xlsx
+++ b/sigbm_download_2022-12-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223406.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224306.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 06/12/2022 - 06:34:49</t>
+    <t>Informação extraída do SIGBM: 06/12/2022 - 06:43:08</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-06.xlsx
+++ b/sigbm_download_2022-12-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224306.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225206.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 06/12/2022 - 06:43:08</t>
+    <t>Informação extraída do SIGBM: 06/12/2022 - 06:52:14</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-06.xlsx
+++ b/sigbm_download_2022-12-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225206.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220006.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 06/12/2022 - 06:52:14</t>
+    <t>Informação extraída do SIGBM: 06/12/2022 - 07:00:55</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-06.xlsx
+++ b/sigbm_download_2022-12-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220006.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222006.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 06/12/2022 - 07:00:55</t>
+    <t>Informação extraída do SIGBM: 06/12/2022 - 07:20:02</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-06.xlsx
+++ b/sigbm_download_2022-12-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222006.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223306.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 06/12/2022 - 07:20:02</t>
+    <t>Informação extraída do SIGBM: 06/12/2022 - 07:33:06</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-06.xlsx
+++ b/sigbm_download_2022-12-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223306.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224206.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 06/12/2022 - 07:33:06</t>
+    <t>Informação extraída do SIGBM: 06/12/2022 - 07:42:59</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-06.xlsx
+++ b/sigbm_download_2022-12-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224206.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225106.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 06/12/2022 - 07:42:59</t>
+    <t>Informação extraída do SIGBM: 06/12/2022 - 07:51:44</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-06.xlsx
+++ b/sigbm_download_2022-12-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225106.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220006.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 06/12/2022 - 07:51:44</t>
+    <t>Informação extraída do SIGBM: 06/12/2022 - 08:00:19</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-06.xlsx
+++ b/sigbm_download_2022-12-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220006.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222006.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 06/12/2022 - 08:00:19</t>
+    <t>Informação extraída do SIGBM: 06/12/2022 - 08:20:26</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-06.xlsx
+++ b/sigbm_download_2022-12-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222006.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223306.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 06/12/2022 - 08:20:26</t>
+    <t>Informação extraída do SIGBM: 06/12/2022 - 08:33:05</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-06.xlsx
+++ b/sigbm_download_2022-12-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223306.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224306.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 06/12/2022 - 08:33:05</t>
+    <t>Informação extraída do SIGBM: 06/12/2022 - 08:43:07</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-06.xlsx
+++ b/sigbm_download_2022-12-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224306.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225106.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 06/12/2022 - 08:43:07</t>
+    <t>Informação extraída do SIGBM: 06/12/2022 - 08:51:45</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-06.xlsx
+++ b/sigbm_download_2022-12-06.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225106.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220006.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 06/12/2022 - 08:51:45</t>
+    <t>Informação extraída do SIGBM: 06/12/2022 - 09:00:57</t>
   </si>
   <si>
     <t>ID Barragem</t>
